--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-579172.7216526221</v>
+        <v>-582167.6450375877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8081470.645674331</v>
+        <v>8040625.778002401</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13759862.74374747</v>
+        <v>13761365.15714918</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>218.2185777905652</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>154.508383917313</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>29.22883044751069</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>208.1110812604923</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>251.2004257102379</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>47.93792996527487</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>90.90308408509682</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>72.75305087075586</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>153.6198390997714</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>30.71539407459405</v>
+        <v>413.710083106054</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>149.07508046431</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>49.82454041671421</v>
       </c>
       <c r="S8" t="n">
         <v>172.7274572393117</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.1240048883792</v>
       </c>
       <c r="U8" t="n">
-        <v>251.21824055511</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.0055152653823</v>
       </c>
       <c r="I9" t="n">
-        <v>60.05742194167557</v>
+        <v>60.05742194167556</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.25008005859567</v>
+        <v>47.25008005859564</v>
       </c>
       <c r="S9" t="n">
         <v>155.8549471289656</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.9662196759722</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>286.2800615416458</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>116.5690517653062</v>
       </c>
       <c r="W10" t="n">
-        <v>22.32019943500602</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229294</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>210.8270300015878</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>229.1345426161575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>57.98576519627339</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>125.3146872343257</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>36.41670903610036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.6078504627122</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2056,19 +2056,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534548</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.3104541389494</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2807,10 +2807,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314418</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192033</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486528</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.6125906008198</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1983720868921</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>36.53032011470947</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839574</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035419</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318987</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082608</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624965</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772835</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652685</v>
+        <v>56.70965412973888</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480914</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.09052893375</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743667</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839574</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035419</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318987</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082608</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624965</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.70965412973851</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480914</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.09052893375</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743667</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.5630920045439</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>84.61259060081868</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.197056837474</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561434</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.4255876952158</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366106</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672676</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839581</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.520550403543</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318995</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082615</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624972</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>115.359067177284</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973875</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437889</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.387071848092</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337507</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091583</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219213</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743674</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374251</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045439</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081868</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.197056837474</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561434</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952158</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366106</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672676</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839581</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035426</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318995</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082615</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624972</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.359067177284</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.70965412973875</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437889</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.387071848092</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337507</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091583</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219213</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743674</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374251</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.4179758042681</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C2" t="n">
-        <v>902.4179758042681</v>
+        <v>761.9719843875312</v>
       </c>
       <c r="D2" t="n">
-        <v>544.1522771975176</v>
+        <v>541.5491785384754</v>
       </c>
       <c r="E2" t="n">
-        <v>544.1522771975176</v>
+        <v>541.5491785384754</v>
       </c>
       <c r="F2" t="n">
-        <v>537.2067764483141</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.956448217093</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.6049130473327</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.6049130473327</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>698.6049130473327</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U4" t="n">
-        <v>698.6049130473327</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V4" t="n">
-        <v>698.6049130473327</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W4" t="n">
-        <v>698.6049130473327</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X4" t="n">
-        <v>698.6049130473327</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.6049130473327</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2198.886095354873</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2198.886095354873</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2198.886095354873</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8809182883535</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C7" t="n">
-        <v>295.8809182883535</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D7" t="n">
-        <v>145.7642788760178</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E7" t="n">
-        <v>145.7642788760178</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>145.7642788760178</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>145.7642788760178</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883535</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883535</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="X7" t="n">
-        <v>295.8809182883535</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.8809182883535</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.721174692152</v>
+        <v>1420.899687697291</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.721174692152</v>
+        <v>1420.899687697291</v>
       </c>
       <c r="D8" t="n">
-        <v>883.4554760854016</v>
+        <v>1420.899687697291</v>
       </c>
       <c r="E8" t="n">
-        <v>497.6672234871574</v>
+        <v>1035.111435099046</v>
       </c>
       <c r="F8" t="n">
-        <v>86.68131869754984</v>
+        <v>624.1255303094388</v>
       </c>
       <c r="G8" t="n">
-        <v>55.65566811715181</v>
+        <v>206.2365574750407</v>
       </c>
       <c r="H8" t="n">
-        <v>55.65566811715181</v>
+        <v>206.2365574750407</v>
       </c>
       <c r="I8" t="n">
-        <v>55.65566811715181</v>
+        <v>55.65566811715185</v>
       </c>
       <c r="J8" t="n">
-        <v>177.6486782872978</v>
+        <v>177.6486782872981</v>
       </c>
       <c r="K8" t="n">
-        <v>481.2293813544683</v>
+        <v>481.2293813544686</v>
       </c>
       <c r="L8" t="n">
-        <v>910.1247154935688</v>
+        <v>910.1247154935695</v>
       </c>
       <c r="M8" t="n">
-        <v>1403.959959479934</v>
+        <v>1403.959959479935</v>
       </c>
       <c r="N8" t="n">
-        <v>1891.153976457039</v>
+        <v>1891.15397645704</v>
       </c>
       <c r="O8" t="n">
-        <v>2306.009833662055</v>
+        <v>2306.009833662057</v>
       </c>
       <c r="P8" t="n">
-        <v>2622.405326849529</v>
+        <v>2622.40532684953</v>
       </c>
       <c r="Q8" t="n">
-        <v>2782.78340585759</v>
+        <v>2782.783405857592</v>
       </c>
       <c r="R8" t="n">
-        <v>2782.78340585759</v>
+        <v>2732.455587254851</v>
       </c>
       <c r="S8" t="n">
-        <v>2608.311226827983</v>
+        <v>2557.983408225243</v>
       </c>
       <c r="T8" t="n">
-        <v>2608.311226827983</v>
+        <v>2339.676332580416</v>
       </c>
       <c r="U8" t="n">
-        <v>2354.555428287468</v>
+        <v>2339.676332580416</v>
       </c>
       <c r="V8" t="n">
-        <v>2354.555428287468</v>
+        <v>2339.676332580416</v>
       </c>
       <c r="W8" t="n">
-        <v>2001.786773017354</v>
+        <v>2339.676332580416</v>
       </c>
       <c r="X8" t="n">
-        <v>1628.321014756274</v>
+        <v>1966.210574319336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1628.321014756274</v>
+        <v>1576.071242343524</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>116.3197306845009</v>
       </c>
       <c r="I9" t="n">
-        <v>55.65566811715181</v>
+        <v>55.65566811715185</v>
       </c>
       <c r="J9" t="n">
-        <v>134.620489555702</v>
+        <v>134.6204895557021</v>
       </c>
       <c r="K9" t="n">
-        <v>396.2047898407038</v>
+        <v>389.2908252093699</v>
       </c>
       <c r="L9" t="n">
-        <v>809.341559368389</v>
+        <v>802.4275947370552</v>
       </c>
       <c r="M9" t="n">
-        <v>1343.431904644982</v>
+        <v>1336.517940013648</v>
       </c>
       <c r="N9" t="n">
-        <v>1907.365045513081</v>
+        <v>1900.451080881747</v>
       </c>
       <c r="O9" t="n">
-        <v>2172.841659013469</v>
+        <v>2349.924053243217</v>
       </c>
       <c r="P9" t="n">
-        <v>2516.580277893362</v>
+        <v>2693.66267212311</v>
       </c>
       <c r="Q9" t="n">
         <v>2693.66267212311</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.9750819312652</v>
+        <v>350.4587091974553</v>
       </c>
       <c r="C10" t="n">
-        <v>190.9750819312652</v>
+        <v>350.4587091974553</v>
       </c>
       <c r="D10" t="n">
-        <v>190.9750819312652</v>
+        <v>350.4587091974553</v>
       </c>
       <c r="E10" t="n">
-        <v>190.9750819312652</v>
+        <v>202.5456156150622</v>
       </c>
       <c r="F10" t="n">
-        <v>190.9750819312652</v>
+        <v>55.65566811715185</v>
       </c>
       <c r="G10" t="n">
-        <v>190.9750819312652</v>
+        <v>55.65566811715185</v>
       </c>
       <c r="H10" t="n">
-        <v>190.9750819312652</v>
+        <v>55.65566811715185</v>
       </c>
       <c r="I10" t="n">
-        <v>55.65566811715181</v>
+        <v>55.65566811715185</v>
       </c>
       <c r="J10" t="n">
-        <v>55.65566811715181</v>
+        <v>55.65566811715185</v>
       </c>
       <c r="K10" t="n">
-        <v>115.7803023734702</v>
+        <v>115.7803023734703</v>
       </c>
       <c r="L10" t="n">
-        <v>248.245568637452</v>
+        <v>248.2455686374521</v>
       </c>
       <c r="M10" t="n">
-        <v>398.300742006502</v>
+        <v>398.3007420065022</v>
       </c>
       <c r="N10" t="n">
-        <v>550.2225551644926</v>
+        <v>550.2225551644929</v>
       </c>
       <c r="O10" t="n">
-        <v>674.5306433594058</v>
+        <v>674.5306433594061</v>
       </c>
       <c r="P10" t="n">
-        <v>757.3770054671033</v>
+        <v>757.3770054671038</v>
       </c>
       <c r="Q10" t="n">
-        <v>757.3770054671033</v>
+        <v>757.3770054671038</v>
       </c>
       <c r="R10" t="n">
-        <v>757.3770054671033</v>
+        <v>757.3770054671038</v>
       </c>
       <c r="S10" t="n">
-        <v>757.3770054671033</v>
+        <v>757.3770054671038</v>
       </c>
       <c r="T10" t="n">
-        <v>757.3770054671033</v>
+        <v>757.3770054671038</v>
       </c>
       <c r="U10" t="n">
-        <v>468.2052261321076</v>
+        <v>468.2052261321081</v>
       </c>
       <c r="V10" t="n">
-        <v>213.5207379262207</v>
+        <v>350.4587091974553</v>
       </c>
       <c r="W10" t="n">
-        <v>190.9750819312652</v>
+        <v>350.4587091974553</v>
       </c>
       <c r="X10" t="n">
-        <v>190.9750819312652</v>
+        <v>350.4587091974553</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.9750819312652</v>
+        <v>350.4587091974553</v>
       </c>
     </row>
     <row r="11">
@@ -5042,16 +5042,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2649.230460361821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5069,10 +5069,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.0466682503423</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C13" t="n">
-        <v>636.1104853224355</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459100997</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459100997</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1743.386870143504</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1454.284003269148</v>
       </c>
       <c r="V13" t="n">
-        <v>1724.89443315909</v>
+        <v>1199.599515063261</v>
       </c>
       <c r="W13" t="n">
-        <v>1435.477263122129</v>
+        <v>910.1823450263</v>
       </c>
       <c r="X13" t="n">
-        <v>1207.487712224112</v>
+        <v>910.1823450263</v>
       </c>
       <c r="Y13" t="n">
-        <v>986.6951330805821</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,52 +5276,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>301.0224619425405</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C16" t="n">
-        <v>301.0224619425405</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="D16" t="n">
-        <v>301.0224619425405</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5464,22 +5464,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851288</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143277</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163104</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y16" t="n">
-        <v>482.6709267727803</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5510,13 +5510,13 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L17" t="n">
         <v>1482.778354750621</v>
@@ -5528,31 +5528,31 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,16 +5622,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300.048425655595</v>
+        <v>851.0327524903256</v>
       </c>
       <c r="C19" t="n">
-        <v>300.048425655595</v>
+        <v>682.0965695624187</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>531.979930150083</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5704,19 +5704,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>1032.681217320565</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5747,55 +5747,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888352</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O20" t="n">
-        <v>3554.371154826471</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5935,10 +5935,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
         <v>1270.093287563029</v>
@@ -5953,7 +5953,7 @@
         <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6063,13 +6063,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.4617675965557</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C25" t="n">
-        <v>680.5255846686488</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D25" t="n">
-        <v>530.408945256313</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4958516739199</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F25" t="n">
-        <v>382.4958516739199</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.57685067423</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468343</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.892362468343</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.902811570325</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.110232426795</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6327,16 +6327,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6455,43 +6455,43 @@
         <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277741</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563075</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811486</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483413</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542198</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232727</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679675</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604873</v>
@@ -6516,58 +6516,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039389999</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953304</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931536</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501062</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
         <v>1270.093287563029</v>
@@ -6686,46 +6686,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160733</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507193</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384002</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944174</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.49894988321</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800315</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610262</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6768,34 +6768,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034526</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668107</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310561</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562688</v>
+        <v>1281.571598885105</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.755759562688</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O33" t="n">
-        <v>2201.632234562881</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>744.6035248193344</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C34" t="n">
-        <v>575.6673418914276</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D34" t="n">
-        <v>425.5507024790918</v>
+        <v>344.979075535267</v>
       </c>
       <c r="E34" t="n">
-        <v>277.6376088966987</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F34" t="n">
-        <v>130.7476613987883</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G34" t="n">
-        <v>130.7476613987883</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7476613987883</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411607</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.41249933569</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074621</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526789003</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.48731310373</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897843</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860882</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X34" t="n">
-        <v>965.3961039628646</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.6035248193344</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>921.9831621891602</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>778.3953859427386</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>653.6271532118882</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>531.0624663109804</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580124</v>
+        <v>409.5209254945553</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345486</v>
+        <v>267.6551373506195</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438403</v>
+        <v>151.1308270705352</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296849</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604309</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277199</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443886</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083873</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504289</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900156</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896368</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371967</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337915</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891594</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427378</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>531.0624663109795</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>409.5209254945545</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887725</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604308</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2628.164286443886</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083873</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504289</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900156</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896368</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>794.2588208963559</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>380.2757138127624</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192589</v>
+        <v>93.84834815160859</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>373.3442236507251</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>842.9746074384122</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1462.494387944193</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2183.498949883238</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2920.783927800352</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3603.645964259497</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4151.951912946852</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4515.534099052863</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580349</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294084</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482814</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870301</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815746</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084596</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683892</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>241.496329903455</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468469</v>
+        <v>572.0050724668174</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962605</v>
+        <v>920.1145186182101</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1512.132872870343</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143763</v>
+        <v>2134.228836269685</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2134.228836269685</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379907</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449476</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>921.9831621891647</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>778.3953859427423</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>653.6271532118908</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>531.0624663109822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>409.5209254945564</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>267.6551373506199</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.130827070535</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296852</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887741</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>894.752936260434</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693419</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873652</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277207</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501937</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443897</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083883</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504299</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900165</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896377</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1740.437300371974</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.368537016498</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799965</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1078.28322033792</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890957</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963552</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127624</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160859</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507251</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384122</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.29390929494</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471233985</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.583449151098</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610243</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297597</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403609</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580349</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294084</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482814</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870301</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815746</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084596</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683892</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>142.6767696327609</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>142.6767696327609</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>142.6767696327609</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>734.6951238848941</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1356.791087284236</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1903.667562284436</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2323.251080710516</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379907</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449476</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>921.9831621891644</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>778.3953859427421</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>653.6271532118909</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>531.0624663109824</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>409.5209254945565</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>267.65513735062</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.130827070535</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296849</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>482.1471447887737</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>894.7529362604337</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979285</v>
+        <v>1338.826501693419</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1778.366340873652</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2170.232771277207</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2485.607179501937</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2628.164286443896</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083883</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504298</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900165</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896376</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371974</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.368537016498</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799965</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.28322033792</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>257.4814343546655</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>208.007411336243</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>31.20618245327515</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>315.167921710932</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>67.53663776704397</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9410,16 +9410,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>315.1679217109328</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>314.5564971416979</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>170.1140909277296</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476666</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>51.31264782910068</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>51.31264782903585</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782903702</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.1111937071423</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>136.4644638301178</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>337.1035285736411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>8.72191927458141</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>23.00310070767048</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>88.44819745029578</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>40.71112102470254</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>112.198763982112</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>25.82611218385701</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143181</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,13 +24175,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.71535412007881</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,19 +24412,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004706</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>16.14213605696585</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.23559055967702</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>45.27425662969966</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108372</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108365</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108365</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108364</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1194170.230093285</v>
+        <v>1194782.903108364</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234674.5613205866</v>
+        <v>234674.5613205865</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="E2" t="n">
+        <v>238249.07213219</v>
+      </c>
+      <c r="F2" t="n">
         <v>238249.0721321899</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>238249.07213219</v>
       </c>
-      <c r="G2" t="n">
-        <v>238249.0721321899</v>
-      </c>
       <c r="H2" t="n">
-        <v>238249.0721321899</v>
+        <v>238249.07213219</v>
       </c>
       <c r="I2" t="n">
         <v>238249.0721321899</v>
       </c>
       <c r="J2" t="n">
-        <v>238249.0721321899</v>
+        <v>238249.07213219</v>
       </c>
       <c r="K2" t="n">
-        <v>238249.0721321899</v>
+        <v>238249.07213219</v>
       </c>
       <c r="L2" t="n">
-        <v>242004.8931355678</v>
+        <v>242004.8931355679</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
+        <v>246312.5309592852</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592849</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22433.10321613011</v>
+        <v>22433.10321613048</v>
       </c>
       <c r="E3" t="n">
-        <v>706179.2730504243</v>
+        <v>706179.2730504241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.48295464189141e-09</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>191822.9586541061</v>
+        <v>191822.9586541106</v>
       </c>
       <c r="M3" t="n">
-        <v>150622.8503651113</v>
+        <v>144383.1494818736</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.429543307400308e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170064.6967383258</v>
+        <v>170064.6967383259</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26430,34 +26430,34 @@
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709183</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709167</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.915760663032</v>
+        <v>5069.91576066282</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.39591958976</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.39591958976</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975164</v>
+        <v>13327.39591958898</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.39591958898</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>84562.47446587947</v>
+        <v>84562.47446587948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26482,34 +26482,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="K5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065314</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-608217.0926956933</v>
+        <v>-608314.0757760159</v>
       </c>
       <c r="C6" t="n">
-        <v>-28753.14349655424</v>
+        <v>-28753.14349655426</v>
       </c>
       <c r="D6" t="n">
-        <v>-47740.27797152443</v>
+        <v>-47740.27797152482</v>
       </c>
       <c r="E6" t="n">
-        <v>-585933.32716904</v>
+        <v>-586000.5226592654</v>
       </c>
       <c r="F6" t="n">
-        <v>120245.9458813844</v>
+        <v>120178.7503911586</v>
       </c>
       <c r="G6" t="n">
-        <v>120245.9458813844</v>
+        <v>120178.7503911586</v>
       </c>
       <c r="H6" t="n">
-        <v>120245.9458813844</v>
+        <v>120178.7503911587</v>
       </c>
       <c r="I6" t="n">
-        <v>120245.9458813844</v>
+        <v>120178.7503911586</v>
       </c>
       <c r="J6" t="n">
-        <v>-56177.27331120856</v>
+        <v>-56244.46880143422</v>
       </c>
       <c r="K6" t="n">
-        <v>120245.9458813821</v>
+        <v>120178.7503911584</v>
       </c>
       <c r="L6" t="n">
-        <v>-55818.02073643981</v>
+        <v>-55853.91771830842</v>
       </c>
       <c r="M6" t="n">
-        <v>-19922.94315949353</v>
+        <v>-14437.75894870958</v>
       </c>
       <c r="N6" t="n">
-        <v>130699.9072056181</v>
+        <v>129945.3905331639</v>
       </c>
       <c r="O6" t="n">
-        <v>130699.9072056183</v>
+        <v>129945.3905331594</v>
       </c>
       <c r="P6" t="n">
-        <v>130699.9072056176</v>
+        <v>129945.3905331646</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>396.1727842589028</v>
+        <v>396.1727842589031</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,22 +26762,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1358.041048716396</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716396</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>695.6958514643976</v>
+        <v>695.6958514643981</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1173.104351895088</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895087</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895087</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.42912004181613</v>
+        <v>18.42912004181636</v>
       </c>
       <c r="E3" t="n">
-        <v>693.6039163343955</v>
+        <v>693.6039163343953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,22 +26984,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2643481230821</v>
+        <v>268.2643481230884</v>
       </c>
       <c r="M3" t="n">
-        <v>9.934451625289967</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.86757334228605e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>21.40857870984189</v>
+        <v>21.40857870984246</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>21.40857870984189</v>
+        <v>21.40857870984246</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>227.1616980638653</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>44.82684149862069</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>259.275786103482</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>117.4363615326471</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>16.92402419759196</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>155.6756200314736</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>279.81432850486</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>65.26780475669833</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>152.2820545873284</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>229.1140025637092</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>382.99468903146</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.1640301487662</v>
       </c>
       <c r="I8" t="n">
-        <v>149.07508046431</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>49.82454041671427</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.1240048883792</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.21824055511</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2765694196312</v>
@@ -28029,10 +28029,10 @@
         <v>155.8754186876821</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.9662196759722</v>
       </c>
       <c r="J10" t="n">
-        <v>42.85039744156644</v>
+        <v>42.85039744156641</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.33995282860006</v>
+        <v>26.33995282860003</v>
       </c>
       <c r="R10" t="n">
-        <v>145.1709226731608</v>
+        <v>145.1709226731607</v>
       </c>
       <c r="S10" t="n">
         <v>211.5663811939507</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>135.5685915585218</v>
       </c>
       <c r="W10" t="n">
-        <v>264.202798901585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.602510716717613e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467044</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261466972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.592654409081015</v>
+        <v>1.592654409081016</v>
       </c>
       <c r="H8" t="n">
-        <v>16.31077196700095</v>
+        <v>16.31077196700096</v>
       </c>
       <c r="I8" t="n">
-        <v>61.4008091060959</v>
+        <v>61.40080910609593</v>
       </c>
       <c r="J8" t="n">
-        <v>135.1745521527399</v>
+        <v>135.17455215274</v>
       </c>
       <c r="K8" t="n">
-        <v>202.5916132891393</v>
+        <v>202.5916132891395</v>
       </c>
       <c r="L8" t="n">
-        <v>251.3328106610525</v>
+        <v>251.3328106610527</v>
       </c>
       <c r="M8" t="n">
-        <v>279.656178508547</v>
+        <v>279.6561785085472</v>
       </c>
       <c r="N8" t="n">
-        <v>284.1813078483485</v>
+        <v>284.1813078483486</v>
       </c>
       <c r="O8" t="n">
-        <v>268.3443505680491</v>
+        <v>268.3443505680493</v>
       </c>
       <c r="P8" t="n">
-        <v>229.0256948438615</v>
+        <v>229.0256948438616</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.9887588186476</v>
+        <v>171.9887588186477</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0445775244354</v>
+        <v>100.0445775244355</v>
       </c>
       <c r="S8" t="n">
-        <v>36.29261234693367</v>
+        <v>36.29261234693369</v>
       </c>
       <c r="T8" t="n">
-        <v>6.971844675752148</v>
+        <v>6.971844675752151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1274123527264812</v>
+        <v>0.1274123527264813</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8521452340663193</v>
+        <v>0.8521452340663198</v>
       </c>
       <c r="H9" t="n">
-        <v>8.229928971114191</v>
+        <v>8.229928971114195</v>
       </c>
       <c r="I9" t="n">
-        <v>29.33921090973951</v>
+        <v>29.33921090973952</v>
       </c>
       <c r="J9" t="n">
-        <v>80.50903722378328</v>
+        <v>80.50903722378332</v>
       </c>
       <c r="K9" t="n">
         <v>137.6027679062267</v>
       </c>
       <c r="L9" t="n">
-        <v>185.023902686198</v>
+        <v>185.0239026861981</v>
       </c>
       <c r="M9" t="n">
-        <v>215.914167421102</v>
+        <v>215.9141674211021</v>
       </c>
       <c r="N9" t="n">
-        <v>221.6287729600819</v>
+        <v>221.628772960082</v>
       </c>
       <c r="O9" t="n">
-        <v>202.7470285631387</v>
+        <v>202.7470285631388</v>
       </c>
       <c r="P9" t="n">
-        <v>162.7223649156992</v>
+        <v>162.7223649156993</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.7755916327463</v>
+        <v>108.7755916327464</v>
       </c>
       <c r="R9" t="n">
-        <v>52.90775409404746</v>
+        <v>52.90775409404749</v>
       </c>
       <c r="S9" t="n">
-        <v>15.82822397487219</v>
+        <v>15.8282239748722</v>
       </c>
       <c r="T9" t="n">
-        <v>3.434743289942751</v>
+        <v>3.434743289942753</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05606218645173155</v>
+        <v>0.05606218645173159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,25 +31671,25 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7144099388275296</v>
+        <v>0.71440993882753</v>
       </c>
       <c r="H10" t="n">
-        <v>6.351753819757495</v>
+        <v>6.351753819757499</v>
       </c>
       <c r="I10" t="n">
-        <v>21.48425525128608</v>
+        <v>21.48425525128609</v>
       </c>
       <c r="J10" t="n">
-        <v>50.50878267510634</v>
+        <v>50.50878267510637</v>
       </c>
       <c r="K10" t="n">
-        <v>83.00144562014387</v>
+        <v>83.00144562014393</v>
       </c>
       <c r="L10" t="n">
-        <v>106.2132739962311</v>
+        <v>106.2132739962312</v>
       </c>
       <c r="M10" t="n">
-        <v>111.987005229119</v>
+        <v>111.9870052291191</v>
       </c>
       <c r="N10" t="n">
         <v>109.3242045480347</v>
@@ -31698,22 +31698,22 @@
         <v>100.9785975353676</v>
       </c>
       <c r="P10" t="n">
-        <v>86.40463478328591</v>
+        <v>86.40463478328596</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.82209042309432</v>
+        <v>59.82209042309436</v>
       </c>
       <c r="R10" t="n">
-        <v>32.12246870400873</v>
+        <v>32.12246870400875</v>
       </c>
       <c r="S10" t="n">
-        <v>12.45021684302158</v>
+        <v>12.45021684302159</v>
       </c>
       <c r="T10" t="n">
-        <v>3.052478829535807</v>
+        <v>3.052478829535809</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03896781484513803</v>
+        <v>0.03896781484513805</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681611</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844682</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974805</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054954</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781704</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563578</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451126</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026319</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U30" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311885</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297395</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802177</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895886</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712242</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377418</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122275</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874058</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830421</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364251</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293295</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229594</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086939</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687513</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148598</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987158</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665716</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901934</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540901</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735814</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848218</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745716</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504291</v>
+        <v>363.178673896302</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>489.7119024980528</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862153</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548564</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284915</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.186526428242</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860858</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551968</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>615.65795118131</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>535.7779407933542</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377468</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>55.91171011122325</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704075</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>463.36497068741</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>694.4639760830484</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>861.5439710364329</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>958.6336695293381</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>974.1453645229683</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>919.8578442087022</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>785.0773883687584</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>589.5604233148651</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>342.9428985987189</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854267</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665738</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4367569201901973</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.921069425540928</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.21138103088212</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735839</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422584</v>
+        <v>471.688653684826</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>490.1800829630992</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>740.1323715504358</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>759.7214730927695</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786855</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982496</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862202</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821101</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013769</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291862</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548584</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>73.64589818284982</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273346</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900908</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640646</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265051</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>374.7525405416903</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465989</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>296.1865264282446</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561758</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860868</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851361</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551977</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704653</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377468</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122325</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704075</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.36497068741</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830484</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364329</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293381</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229683</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442087022</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687584</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148651</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987189</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854267</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665738</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901973</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540928</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088212</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>176.1592645264181</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>740.1323715504358</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927695</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426259</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982496</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286981</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862202</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821101</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013769</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291862</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548584</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284982</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273346</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900908</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640646</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265051</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416903</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465989</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282446</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561758</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860868</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851361</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551977</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704653</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>123.2252627981274</v>
+        <v>123.2252627981275</v>
       </c>
       <c r="K8" t="n">
-        <v>306.6471748153235</v>
+        <v>306.6471748153236</v>
       </c>
       <c r="L8" t="n">
-        <v>433.2276102415157</v>
+        <v>433.2276102415159</v>
       </c>
       <c r="M8" t="n">
-        <v>498.8234787741068</v>
+        <v>498.8234787741069</v>
       </c>
       <c r="N8" t="n">
-        <v>492.1151686637417</v>
+        <v>492.1151686637419</v>
       </c>
       <c r="O8" t="n">
-        <v>419.0463204091077</v>
+        <v>419.0463204091079</v>
       </c>
       <c r="P8" t="n">
-        <v>319.5914072600746</v>
+        <v>319.5914072600747</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.9980596041028</v>
+        <v>161.9980596041029</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>79.76244589752542</v>
+        <v>79.76244589752547</v>
       </c>
       <c r="K9" t="n">
-        <v>264.2265659444463</v>
+        <v>257.2427632865332</v>
       </c>
       <c r="L9" t="n">
-        <v>417.309868209783</v>
+        <v>417.3098682097831</v>
       </c>
       <c r="M9" t="n">
-        <v>539.4851972490836</v>
+        <v>539.4851972490837</v>
       </c>
       <c r="N9" t="n">
-        <v>569.6294352203021</v>
+        <v>569.6294352203022</v>
       </c>
       <c r="O9" t="n">
-        <v>268.1581954549372</v>
+        <v>454.0131033954239</v>
       </c>
       <c r="P9" t="n">
-        <v>347.2107261413061</v>
+        <v>347.2107261413062</v>
       </c>
       <c r="Q9" t="n">
-        <v>178.8711052825739</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>60.73195379426102</v>
+        <v>60.73195379426107</v>
       </c>
       <c r="L10" t="n">
-        <v>133.8032992565472</v>
+        <v>133.8032992565473</v>
       </c>
       <c r="M10" t="n">
-        <v>151.5708821909596</v>
+        <v>151.5708821909597</v>
       </c>
       <c r="N10" t="n">
-        <v>153.4563769272632</v>
+        <v>153.4563769272633</v>
       </c>
       <c r="O10" t="n">
         <v>125.5637254494073</v>
       </c>
       <c r="P10" t="n">
-        <v>83.6831940481794</v>
+        <v>83.68319404817944</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>854.0890375411587</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35896,16 +35896,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707635</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36130,16 +36130,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>867.4697571238443</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>713.3184833610698</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>568.8760771471015</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407875</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265669</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923343</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302292</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N29" t="n">
-        <v>552.301835412914</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845358881</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908565</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636256</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152081</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453596518</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N30" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L31" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789417</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607195</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380615</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664379</v>
+        <v>677.090203895523</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020568</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263685</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>741.0722806161078</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134817</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404103</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845836</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069147</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104628</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946974</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284108</v>
+        <v>221.0446399742837</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981751</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>355.7374950837226</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066027</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243774</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606354</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>484.3162390979766</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788765</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390488</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030136</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355869</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753068</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078066</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191505</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>397.22356101348</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788765</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390488</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030136</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355869</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753068</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078066</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191505</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>282.3190661607237</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>474.3741250380678</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>625.7775560664456</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>728.2874363020654</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>744.7323009263773</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>689.7596327870154</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>553.8443926134889</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>367.2547334404156</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902427</v>
+        <v>178.6700086136226</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>149.1393755069172</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678994</v>
+        <v>333.847214710467</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>351.625703183225</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284174</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>628.3797610094363</v>
       </c>
       <c r="O42" t="n">
-        <v>220.940907034241</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839194</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253315</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788777</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390505</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>448.5591570030154</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>443.9796355355886</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>395.8246771753082</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078078</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191512</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607237</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380678</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>677.0902038954827</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020654</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263773</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870154</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134889</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404156</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845868</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>49.32163785975138</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>597.9983376284174</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094363</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981814</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839194</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426765</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253315</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788776</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390505</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030154</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355886</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753082</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078078</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191512</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
